--- a/shipClassTests/testResults/parallel_ship_test.xlsx
+++ b/shipClassTests/testResults/parallel_ship_test.xlsx
@@ -441,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1078,10 +1078,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1106,8 +1106,173 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f>IF(B21=F21,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f>IF(B22=F22,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f>IF(B23=F23,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f>IF(B24=F24,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f>IF(B25=F25,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J20">
+  <conditionalFormatting sqref="J2:J25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1123,7 +1288,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2054,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2111,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2168,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2180,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2216,7 +2381,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2225,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2268,8 +2433,293 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <f>IF(B21 = J21, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <f>IF(B22 = J22, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <f>IF(B23 = J23, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <f>IF(B24 = J24, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <f>IF(B25 = J25, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="R2:R20">
+  <conditionalFormatting sqref="R2:R25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2285,7 +2735,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3216,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3264,7 +3714,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3273,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3321,7 +3771,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3330,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3342,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -3387,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3430,8 +3880,293 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <f>IF(B21 = J21, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <f>IF(B22 = J22, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <f>IF(B23 = J23, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <f>IF(B24 = J24, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <f>IF(B25 = J25, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="R2:R20">
+  <conditionalFormatting sqref="R2:R25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3447,7 +4182,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3610,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -3640,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -3667,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3679,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -3697,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3709,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -3736,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3748,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -3766,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -3778,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -3805,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3817,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3835,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3847,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -3874,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3886,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -3904,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3916,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -3943,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3955,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -3973,7 +4708,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3985,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -4012,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4024,13 +4759,13 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -4042,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -4054,13 +4789,13 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>1</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -4081,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4093,13 +4828,13 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -4111,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -4123,13 +4858,13 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -4150,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4162,13 +4897,13 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4180,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -4192,13 +4927,13 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>1</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -4219,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4231,25 +4966,25 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -4261,13 +4996,13 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -4288,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4300,25 +5035,25 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -4330,13 +5065,13 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>1</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -4357,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4369,25 +5104,25 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -4399,13 +5134,13 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -4426,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4438,25 +5173,25 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -4468,13 +5203,13 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -4495,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -4507,25 +5242,25 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -4537,13 +5272,13 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -4564,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -4576,25 +5311,25 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4606,13 +5341,13 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -4633,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -4645,25 +5380,25 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4675,13 +5410,13 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -4702,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -4714,13 +5449,13 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4732,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4744,13 +5479,13 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -4771,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4783,13 +5518,13 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -4801,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4813,13 +5548,13 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -4832,8 +5567,353 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <f>IF(B21 = L21, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <f>IF(B22 = L22, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <f>IF(B23 = L23, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <f>IF(B24 = L24, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <f>IF(B25 = L25, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="V2:V20">
+  <conditionalFormatting sqref="V2:V25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
